--- a/Approximationen/COP Modell CC.xlsx
+++ b/Approximationen/COP Modell CC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="219" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BA1CFB8D-190B-43F2-BDBA-ADFE7146D170}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5452145B-CF42-402C-890C-52F000F153DB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1812,12 +1812,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.66642</cdr:x>
-      <cdr:y>0.206</cdr:y>
+      <cdr:x>0.58863</cdr:x>
+      <cdr:y>0.26147</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76471</cdr:x>
-      <cdr:y>0.35813</cdr:y>
+      <cdr:x>0.68692</cdr:x>
+      <cdr:y>0.4136</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1831,8 +1831,8 @@
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20021759">
-          <a:off x="6201618" y="1238092"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20138480">
+          <a:off x="5477756" y="1571492"/>
           <a:ext cx="914679" cy="914343"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -2148,6 +2148,264 @@
               <a:srgbClr val="C00000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17882</cdr:x>
+      <cdr:y>0.09661</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27713</cdr:x>
+      <cdr:y>0.24891</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEBC5E4-351A-42DB-BFA8-BEA973289C14}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1664097" y="580628"/>
+          <a:ext cx="914812" cy="915392"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1500" b="1" i="1"/>
+            <a:t>COP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1500" b="1" i="0" baseline="-25000"/>
+            <a:t>max</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.09148</cdr:x>
+      <cdr:y>0.14857</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97364</cdr:x>
+      <cdr:y>0.14956</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Gerade Verbindung 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8F6334-6BB7-4395-8D69-703C23F8B6F8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="851296" y="892968"/>
+          <a:ext cx="8209359" cy="5953"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>

--- a/Approximationen/COP Modell CC.xlsx
+++ b/Approximationen/COP Modell CC.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5452145B-CF42-402C-890C-52F000F153DB}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F4057146-933A-4D01-9B97-AF4E3AAE2B9C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -643,7 +643,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1600" b="1">
+                  <a:rPr lang="en-GB" sz="2200" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -651,7 +651,7 @@
                   <a:t>Nutztemperatur T</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1600" b="1" baseline="-25000">
+                  <a:rPr lang="en-GB" sz="2200" b="1" baseline="-25000">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -659,14 +659,14 @@
                   <a:t>N</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1600" b="1" baseline="0">
+                  <a:rPr lang="en-GB" sz="2200" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> [°C]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1600" b="1">
+                <a:endParaRPr lang="en-GB" sz="2200" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -687,7 +687,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -709,7 +709,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -722,7 +722,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -783,7 +783,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -793,7 +793,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1600" b="1">
+                  <a:rPr lang="en-GB" sz="2200" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -824,7 +824,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -843,7 +843,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -856,7 +856,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -875,7 +875,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1523,12 +1523,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.79228</cdr:x>
-      <cdr:y>0.20758</cdr:y>
+      <cdr:x>0.78409</cdr:x>
+      <cdr:y>0.20441</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85576</cdr:x>
-      <cdr:y>0.26305</cdr:y>
+      <cdr:x>0.84757</cdr:x>
+      <cdr:y>0.25988</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1543,7 +1543,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7372943" y="1247637"/>
+          <a:off x="7296698" y="1228563"/>
           <a:ext cx="590740" cy="333390"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1555,7 +1555,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" b="1"/>
+            <a:rPr lang="en-GB" sz="2000" b="1"/>
             <a:t>KKM 1</a:t>
           </a:r>
         </a:p>
@@ -1564,12 +1564,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.56864</cdr:x>
-      <cdr:y>0.39035</cdr:y>
+      <cdr:x>0.57171</cdr:x>
+      <cdr:y>0.38243</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.63211</cdr:x>
-      <cdr:y>0.44581</cdr:y>
+      <cdr:x>0.63518</cdr:x>
+      <cdr:y>0.43789</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1584,7 +1584,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5291678" y="2346102"/>
+          <a:off x="5320296" y="2298486"/>
           <a:ext cx="590647" cy="333330"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1660,7 +1660,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" b="1"/>
+            <a:rPr lang="en-GB" sz="2000" b="1"/>
             <a:t>KKM 2</a:t>
           </a:r>
         </a:p>
@@ -1669,12 +1669,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.49588</cdr:x>
-      <cdr:y>0.51398</cdr:y>
+      <cdr:x>0.50202</cdr:x>
+      <cdr:y>0.49179</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.55936</cdr:x>
-      <cdr:y>0.56945</cdr:y>
+      <cdr:x>0.5655</cdr:x>
+      <cdr:y>0.54726</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1689,7 +1689,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4614583" y="3089145"/>
+          <a:off x="4671772" y="2955811"/>
           <a:ext cx="590740" cy="333390"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1765,7 +1765,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-GB" sz="1600" b="1"/>
+            <a:rPr lang="en-GB" sz="2000" b="1"/>
             <a:t>KKM 3</a:t>
           </a:r>
         </a:p>
@@ -1812,12 +1812,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.58863</cdr:x>
-      <cdr:y>0.26147</cdr:y>
+      <cdr:x>0.54871</cdr:x>
+      <cdr:y>0.27732</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68692</cdr:x>
-      <cdr:y>0.4136</cdr:y>
+      <cdr:x>0.647</cdr:x>
+      <cdr:y>0.42945</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1831,8 +1831,8 @@
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20138480">
-          <a:off x="5477756" y="1571492"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20151855">
+          <a:off x="5106273" y="1666758"/>
           <a:ext cx="914679" cy="914343"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1844,7 +1844,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1">
+            <a:rPr lang="en-GB" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1852,7 +1852,7 @@
             <a:t>18°C/T</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1" baseline="-25000">
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="-25000">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -1860,14 +1860,14 @@
             <a:t>N</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
             </a:rPr>
             <a:t> -&gt; 27°C/35°C</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1500" b="1" baseline="-25000">
+          <a:endParaRPr lang="en-GB" sz="2000" b="1" baseline="-25000">
             <a:solidFill>
               <a:schemeClr val="tx2"/>
             </a:solidFill>
@@ -1878,12 +1878,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.21606</cdr:x>
-      <cdr:y>0.56109</cdr:y>
+      <cdr:x>0.22732</cdr:x>
+      <cdr:y>0.54207</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.32804</cdr:x>
-      <cdr:y>0.71322</cdr:y>
+      <cdr:x>0.3393</cdr:x>
+      <cdr:y>0.6942</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1897,9 +1897,9 @@
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20605938">
-          <a:off x="2010599" y="3372329"/>
-          <a:ext cx="1042147" cy="914343"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20554000">
+          <a:off x="2115412" y="3258005"/>
+          <a:ext cx="1042078" cy="914343"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1974,7 +1974,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1">
+            <a:rPr lang="en-GB" sz="2000" b="1">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -1984,7 +1984,7 @@
             <a:t>12°C/T</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1" baseline="-25000">
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="-25000">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -1994,7 +1994,7 @@
             <a:t>N</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -2003,7 +2003,7 @@
             </a:rPr>
             <a:t> -&gt; 30°C/35°C</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1500" b="1" baseline="-25000">
+          <a:endParaRPr lang="en-GB" sz="2000" b="1" baseline="-25000">
             <a:solidFill>
               <a:schemeClr val="accent6">
                 <a:lumMod val="75000"/>
@@ -2016,12 +2016,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.62589</cdr:x>
-      <cdr:y>0.52666</cdr:y>
+      <cdr:x>0.57881</cdr:x>
+      <cdr:y>0.53141</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.72418</cdr:x>
-      <cdr:y>0.67879</cdr:y>
+      <cdr:x>0.6771</cdr:x>
+      <cdr:y>0.68354</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2035,9 +2035,9 @@
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20462945">
-          <a:off x="5824498" y="3165383"/>
-          <a:ext cx="914680" cy="914343"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20524242">
+          <a:off x="5386335" y="3193946"/>
+          <a:ext cx="914680" cy="914344"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2112,7 +2112,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1">
+            <a:rPr lang="en-GB" sz="2000" b="1">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -2120,7 +2120,7 @@
             <a:t>12°C/T</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1" baseline="-25000">
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="-25000">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -2128,7 +2128,7 @@
             <a:t>N</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1">
+            <a:rPr lang="en-GB" sz="2000" b="1">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -2136,14 +2136,14 @@
             <a:t>°C</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+            <a:rPr lang="en-GB" sz="2000" b="1" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </a:rPr>
             <a:t> -&gt; 35°C/40°C</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1500" b="1" baseline="-25000">
+          <a:endParaRPr lang="en-GB" sz="2000" b="1" baseline="-25000">
             <a:solidFill>
               <a:srgbClr val="C00000"/>
             </a:solidFill>
@@ -2154,12 +2154,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.17882</cdr:x>
-      <cdr:y>0.09661</cdr:y>
+      <cdr:x>0.21157</cdr:x>
+      <cdr:y>0.07759</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.27713</cdr:x>
-      <cdr:y>0.24891</cdr:y>
+      <cdr:x>0.30988</cdr:x>
+      <cdr:y>0.22989</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2174,8 +2174,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1664097" y="580628"/>
-          <a:ext cx="914812" cy="915392"/>
+          <a:off x="1968886" y="466353"/>
+          <a:ext cx="914865" cy="915365"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2250,11 +2250,11 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="de-DE" sz="1500" b="1" i="1"/>
+            <a:rPr lang="de-DE" sz="2200" b="1" i="1"/>
             <a:t>COP</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="de-DE" sz="1500" b="1" i="0" baseline="-25000"/>
+            <a:rPr lang="de-DE" sz="2200" b="1" i="0" baseline="-25000"/>
             <a:t>max</a:t>
           </a:r>
         </a:p>
@@ -2263,12 +2263,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.09148</cdr:x>
-      <cdr:y>0.14857</cdr:y>
+      <cdr:x>0.11502</cdr:x>
+      <cdr:y>0.14738</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.97364</cdr:x>
-      <cdr:y>0.14956</cdr:y>
+      <cdr:x>0.96827</cdr:x>
+      <cdr:y>0.14797</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2283,13 +2283,13 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="851296" y="892968"/>
-          <a:ext cx="8209359" cy="5953"/>
+          <a:off x="1070382" y="885824"/>
+          <a:ext cx="7940268" cy="3546"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>

--- a/Approximationen/COP Modell CC.xlsx
+++ b/Approximationen/COP Modell CC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F4057146-933A-4D01-9B97-AF4E3AAE2B9C}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{198E01E3-4993-4F2F-9A61-B951223F942A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
             <c:v>1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -206,7 +206,7 @@
             <c:v>2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
@@ -297,7 +297,7 @@
             <c:v>3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
